--- a/data/trans_bre/P23_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,76</t>
+          <t>14,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>37,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>51,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>68,88%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>45,97%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>231,84%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 15,97</t>
+          <t>-8,66; 23,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 28,22</t>
+          <t>-4,82; 34,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 14,84</t>
+          <t>-11,7; 23,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 153,54</t>
+          <t>17,32; 61,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,89; 256,87</t>
+          <t>-40,88; 342,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 171,88</t>
+          <t>-20,83; 311,7</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-47,66; 402,92</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>51,88; 904,09</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,21</t>
+          <t>17,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,04</t>
+          <t>19,31</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>104,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>53,57%</t>
+          <t>132,6%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>61,57%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 21,35</t>
+          <t>8,41; 26,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 21,0</t>
+          <t>8,31; 27,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 15,97</t>
+          <t>-3,45; 20,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,94; 173,04</t>
+          <t>-12,54; 12,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,18; 194,19</t>
+          <t>39,44; 222,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 149,92</t>
+          <t>49,37; 265,63</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-19,19; 185,99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-34,8; 54,9</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,65%</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,22%</t>
+          <t>133,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,2%</t>
+          <t>34,3%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54,27%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 15,33</t>
+          <t>2,95; 18,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 15,19</t>
+          <t>-5,04; 12,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 15,25</t>
+          <t>-3,06; 16,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 162,1</t>
+          <t>-8,69; 11,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,66; 178,16</t>
+          <t>16,12; 398,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 142,06</t>
+          <t>-26,16; 133,17</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-19,81; 177,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-35,12; 87,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 14,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 17,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 12,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,69; 124,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,93; 141,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 105,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,88</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,67</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,48</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,68</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>98,13%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>82,11%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>55,43%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 18,61</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 18,13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 14,75</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 15,92</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40,63; 180,86</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>32,6; 144,65</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 122,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 81,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,48</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,58</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>37,58</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>51,95%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>68,88%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>45,97%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>231,84%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.956584921930948</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>13.61632332997291</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.887489786391852</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>32.60511762803448</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.6034662335317275</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.6419861356407469</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3208857759579574</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.93865036609782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,66; 23,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 34,44</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,7; 23,24</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>17,32; 61,19</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-40,88; 342,17</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-20,83; 311,7</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-47,66; 402,92</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>51,88; 904,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.113691515995972</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.912420042820728</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.72045999440653</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>11.35499555379446</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3965016885248421</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2407477304706776</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5243663664582263</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.3438556231796008</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23.19792541381954</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>33.25390142090962</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21.30505586414422</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>57.16826649267538</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.367206803202411</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.898304844755435</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.461914688084278</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>8.310093902783509</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>17,42</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>19,31</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,06</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>104,19%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>132,6%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>61,57%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>8,41; 26,12</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>8,31; 27,27</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; 20,5</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,54; 12,06</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>39,44; 222,66</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>49,37; 265,63</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-19,19; 185,99</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-34,8; 54,9</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>18.13015797101026</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>20.14872990144585</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>10.46989269625589</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.037241841488878</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.121885279474796</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.43907815292042</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6467138695587646</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.03621264815167867</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10,6</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>133,64%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>34,3%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>54,27%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8,72%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>9.058063032683302</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>9.067696028247502</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.199334942026125</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-13.42600222631916</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.4280887283525994</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.5213918970273981</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1825669738897638</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3694242843263408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 18,19</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 12,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 16,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,69; 11,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>16,12; 398,39</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-26,16; 133,17</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-19,81; 177,53</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-35,12; 87,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>27.03461741592303</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>28.21028990632327</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>20.95192267179642</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.10547562018003</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.396284172971401</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.828867405724199</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.94142405777467</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5630315040634423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>8.977886894567472</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.591154608687892</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.586869953093622</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.5553205634677039</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.9877274372698486</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.3987373099347319</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4410452813185795</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.02801901935618844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.275527833197658</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.95153337706649</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.931008702285909</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.1934264819832</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.213538480916904</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.224239818873699</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2705143347723074</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3859496914957981</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.76567401518703</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.51983590266286</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.40784439809842</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.24059253905356</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.296329499193184</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.397801151563453</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.575667472982709</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7714286217089344</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>12,88</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,67</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,48</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>98,13%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>82,11%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>55,43%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>32,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 18,61</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 18,13</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 14,75</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 15,92</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>40,63; 180,86</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>32,6; 144,65</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-7,42; 122,57</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-6,17; 81,26</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>12.89097950186761</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>13.37939490313826</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.025486471237764</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.349937388657622</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.9883037613533726</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.8937158464621224</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.513990691505675</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2674094978246452</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.78447117452431</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6.839725129552628</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.6641701128159828</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.92669270715001</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.3920749836425033</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.387940320965153</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.07430715539261258</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1212840459670958</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>18.92207106369044</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.83242437439983</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.2792743614773</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>14.31601100531098</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.898432772954375</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.559273250448251</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.177516464485082</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.717830090909453</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
